--- a/spec/ASW/Veh/Driver/Key/T15_DD/T15_DD.xlsx
+++ b/spec/ASW/Veh/Driver/Key/T15_DD/T15_DD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\Key\T15_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400BDCE-2CD4-446B-827E-19ECD99A7B56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,68 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15_uRaw</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Raw ADC value of downstream engine coolant temperature sensor signal</t>
+  </si>
+  <si>
+    <t>T15_st</t>
+  </si>
+  <si>
+    <t>Terminal 15 status after debouncing</t>
+  </si>
+  <si>
+    <t>T15_stRaw</t>
+  </si>
+  <si>
+    <t>Raw value of Terminal 15 status</t>
+  </si>
+  <si>
+    <t>T15_tiDebLoHi_C</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Debounce time terminal15-signal from high to low</t>
+  </si>
+  <si>
+    <t>T15_tiDebHiLo_C</t>
+  </si>
+  <si>
+    <t>Debounce time terminal15-signal from low to high</t>
+  </si>
+  <si>
+    <t>T15_uThreshold_C</t>
+  </si>
+  <si>
+    <t>T15 voltage threshold</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>Debncd_ms</t>
+  </si>
+  <si>
+    <t>Volt_mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +563,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +642,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +668,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +711,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +739,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,11 +779,83 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>800</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="6"/>
@@ -729,7 +923,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/spec/ASW/Veh/Driver/Key/T15_DD/T15_DD.xlsx
+++ b/spec/ASW/Veh/Driver/Key/T15_DD/T15_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\Key\T15_DD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400BDCE-2CD4-446B-827E-19ECD99A7B56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A006D6E8-1B93-4830-8ECA-C04504C0DBE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -127,11 +127,11 @@
     <t>Debncd_ms</t>
   </si>
   <si>
-    <t>Volt_mV</t>
+    <t>boolean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean</t>
+    <t>Volt_mV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +523,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>18</v>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>25</v>
